--- a/Students/abhaysanand/3project/TankCalibration.xlsx
+++ b/Students/abhaysanand/3project/TankCalibration.xlsx
@@ -18,6 +18,7 @@
     <sheet name="CoupledFlowRate" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>IR Value</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>CoupledFlowRate</t>
+  </si>
+  <si>
+    <t>Voltage</t>
   </si>
 </sst>
 </file>
@@ -114,6 +118,2939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'IR Sensor'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'IR Sensor'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="358780184"/>
+        <c:axId val="358779008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="358780184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358779008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358779008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358780184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13943713973552346"/>
+                  <c:y val="-1.2501780073187202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'IR Sensor'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'IR Sensor'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376659080"/>
+        <c:axId val="376664568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376659080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376664568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376664568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376659080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>InFlowRate!$A$4:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>InFlowRate!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="358779400"/>
+        <c:axId val="358780576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="358779400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358780576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358780576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358779400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,95 +3319,123 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>203</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>209</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>217</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>210</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>263</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>380</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>470</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B13">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B15">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -479,7 +3444,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,76 +3465,121 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45</v>
       </c>
+      <c r="B5">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
+      <c r="B6">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>75</v>
       </c>
+      <c r="B7">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>90</v>
       </c>
+      <c r="B8">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>105</v>
       </c>
+      <c r="B9">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>120</v>
       </c>
+      <c r="B10">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135</v>
       </c>
+      <c r="B11">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>150</v>
       </c>
+      <c r="B12">
+        <v>2.0499999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>165</v>
       </c>
+      <c r="B13">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>180</v>
       </c>
+      <c r="B14">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195</v>
       </c>
+      <c r="B15">
+        <v>2.27</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>210</v>
       </c>
+      <c r="B16">
+        <v>2.34</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -588,103 +3598,120 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>263</v>
+      </c>
+      <c r="C7">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>380</v>
+      </c>
+      <c r="C9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
+      <c r="B10">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
